--- a/CR - Cost Report/1_BOM/SU/BOM_SU.xlsx
+++ b/CR - Cost Report/1_BOM/SU/BOM_SU.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\1_BOM\SU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF022274-2C6C-4474-AE83-968C5DEBA78B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08FC22-4D7E-4A4C-BC3A-E4CE49FAA4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{1807FCBB-045D-46A2-911F-8FF3D80D26D9}"/>
-    <workbookView minimized="1" xWindow="31395" yWindow="2550" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{8C16F418-B29B-41D4-A931-C7535CD11BB3}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{1807FCBB-045D-46A2-911F-8FF3D80D26D9}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -1668,7 +1667,89 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4DEA0611-23EE-4E2A-BA61-CFE7D0B9D21F}"/>
   </cellStyles>
-  <dxfs count="161">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9B9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB2B2B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1725,96 +1806,6 @@
           <bgColor rgb="FFFF9B9B"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2334,6 +2325,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <color rgb="FFFF0000"/>
@@ -2376,2818 +2375,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9B9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB2B2B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5512,12 +2699,9 @@
   </sheetPr>
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H173" sqref="H173"/>
-    </sheetView>
-    <sheetView topLeftCell="A142" workbookViewId="1">
-      <selection activeCell="G175" sqref="G175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9503,7 +6687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G173:G175">
-    <cfRule type="expression" dxfId="4" priority="44">
+    <cfRule type="expression" dxfId="32" priority="44">
       <formula>$B174&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9524,11 +6708,8 @@
   </sheetPr>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10799,20 +7980,20 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="E3:F73">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="31" priority="12">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H73">
-    <cfRule type="expression" dxfId="31" priority="11">
+    <cfRule type="expression" dxfId="30" priority="11">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F73">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>LEN(F3)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10831,9 +8012,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D34" sqref="D34:F34"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11866,20 +9044,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F72">
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F72">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>LEN(F3)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H72">
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="24" priority="31">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11898,9 +9076,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12969,20 +10144,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F72">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F72">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>LEN(F3)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H72">
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="21" priority="28">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13001,9 +10176,6 @@
     <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
-    <sheetView topLeftCell="A19" workbookViewId="1">
-      <selection activeCell="F37" sqref="F37"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14425,20 +11597,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F86">
-    <cfRule type="expression" dxfId="20" priority="36">
+    <cfRule type="expression" dxfId="19" priority="36">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F86">
-    <cfRule type="expression" dxfId="19" priority="34">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula>LEN(F3)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H86">
-    <cfRule type="expression" dxfId="18" priority="35">
+    <cfRule type="expression" dxfId="17" priority="35">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="37">
+    <cfRule type="expression" dxfId="16" priority="37">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14457,9 +11629,6 @@
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B81" sqref="B81:F85"/>
     </sheetView>
-    <sheetView topLeftCell="A43" workbookViewId="1">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15872,20 +13041,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F100">
-    <cfRule type="expression" dxfId="16" priority="41">
+    <cfRule type="expression" dxfId="15" priority="41">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F100">
-    <cfRule type="expression" dxfId="15" priority="39">
+    <cfRule type="expression" dxfId="14" priority="39">
       <formula>LEN(F3)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H100">
-    <cfRule type="expression" dxfId="14" priority="40">
+    <cfRule type="expression" dxfId="13" priority="40">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="42">
+    <cfRule type="expression" dxfId="12" priority="42">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15904,7 +13073,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:F8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17157,20 +14325,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F94">
-    <cfRule type="expression" dxfId="12" priority="39">
+    <cfRule type="expression" dxfId="11" priority="39">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F94">
-    <cfRule type="expression" dxfId="11" priority="37">
+    <cfRule type="expression" dxfId="10" priority="37">
       <formula>LEN(F3)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H94">
-    <cfRule type="expression" dxfId="10" priority="38">
+    <cfRule type="expression" dxfId="9" priority="38">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="40">
+    <cfRule type="expression" dxfId="8" priority="40">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17186,10 +14354,9 @@
   </sheetPr>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
-    <sheetView topLeftCell="A46" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18522,20 +15689,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F83">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F83">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>LEN(F3)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H83">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18554,7 +15721,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19485,20 +16651,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F72">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H72">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B3&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$D3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F72">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN(F3)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CR - Cost Report/1_BOM/SU/BOM_SU.xlsx
+++ b/CR - Cost Report/1_BOM/SU/BOM_SU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\1_BOM\SU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08FC22-4D7E-4A4C-BC3A-E4CE49FAA4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A989DD-937B-42C9-B5C3-21CDD266E4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{1807FCBB-045D-46A2-911F-8FF3D80D26D9}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1807FCBB-045D-46A2-911F-8FF3D80D26D9}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -54,6 +54,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Pour les basculeurs, la seule visserie à inclure est celle entre le basculeur et le châssis. Pour les liaisons avec amortisseurs, bielette, BAR, voir dans les assemblages concernés
 	-Thibaud</t>
@@ -67,6 +68,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Celles côté châssis ont dû être limées (mauvais écartement entre les chapes). Refaire un nouveau catpart et MEP
 	-Thibaud</t>
@@ -80,6 +82,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Cale de carrossage. Nombre à corriger en fonction des réglages de la voiture
 	-Thibaud</t>
@@ -91,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="446">
   <si>
     <t>System</t>
   </si>
@@ -1357,9 +1360,6 @@
     <t>SU - Rear Uprights</t>
   </si>
   <si>
-    <t>M6x20 CHC</t>
-  </si>
-  <si>
     <t>SU_A1400_P</t>
   </si>
   <si>
@@ -1445,6 +1445,9 @@
   </si>
   <si>
     <t>M6x35</t>
+  </si>
+  <si>
+    <t>Ou 2x M8x45</t>
   </si>
 </sst>
 </file>
@@ -1471,17 +1474,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2699,8 +2705,8 @@
   </sheetPr>
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
@@ -6202,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H175" s="5" t="b">
         <v>0</v>
@@ -6709,7 +6715,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8007,10 +8013,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8024,7 +8030,7 @@
     <col min="8" max="8" width="12.85546875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>349</v>
       </c>
@@ -8064,7 +8070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19" t="s">
         <v>278</v>
@@ -8080,7 +8086,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -8097,8 +8103,11 @@
         <v>4</v>
       </c>
       <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -8116,7 +8125,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -8134,7 +8143,7 @@
       </c>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -8144,7 +8153,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -8154,7 +8163,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -8164,7 +8173,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -8180,7 +8189,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -8196,7 +8205,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -8212,7 +8221,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -8228,7 +8237,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -8242,7 +8251,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -8252,7 +8261,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -9073,8 +9082,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9361,7 +9370,7 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>378</v>
@@ -10173,8 +10182,8 @@
   </sheetPr>
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11626,8 +11635,8 @@
   </sheetPr>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:F85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12600,7 +12609,9 @@
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="21">
+        <v>4</v>
+      </c>
       <c r="H64" s="21" t="s">
         <v>185</v>
       </c>
@@ -13071,7 +13082,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13152,7 +13163,7 @@
         <v>320</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="G4" s="20">
         <v>4</v>
@@ -14355,7 +14366,7 @@
   <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14397,7 +14408,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -14422,7 +14433,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -14436,7 +14447,7 @@
         <v>320</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G4" s="20">
         <v>4</v>
@@ -14454,7 +14465,7 @@
         <v>320</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G5" s="20">
         <v>2</v>
@@ -14472,7 +14483,7 @@
         <v>320</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G6" s="20">
         <v>2</v>
@@ -14490,7 +14501,7 @@
         <v>341</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G7" s="20">
         <v>4</v>
@@ -14526,7 +14537,7 @@
         <v>321</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G9" s="20">
         <v>4</v>
@@ -14547,7 +14558,7 @@
         <v>323</v>
       </c>
       <c r="G10" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10" s="20"/>
     </row>
@@ -14572,7 +14583,7 @@
         <v>318</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -14588,7 +14599,7 @@
         <v>318</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -14604,7 +14615,7 @@
         <v>318</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -14617,10 +14628,10 @@
         <v>286</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="20"/>
@@ -14646,7 +14657,7 @@
         <v>318</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="20"/>
@@ -14662,7 +14673,7 @@
         <v>327</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="20"/>
@@ -14688,7 +14699,7 @@
         <v>318</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="20"/>
@@ -14704,7 +14715,7 @@
         <v>327</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="20"/>
@@ -14720,7 +14731,7 @@
         <v>318</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="20"/>
@@ -14736,7 +14747,7 @@
         <v>327</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="20"/>
@@ -14752,7 +14763,7 @@
         <v>318</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="20"/>
@@ -14768,7 +14779,7 @@
         <v>327</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="20"/>
@@ -14776,7 +14787,7 @@
     <row r="26" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>12</v>
@@ -14784,7 +14795,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G26" s="15">
         <v>1</v>
@@ -14866,7 +14877,7 @@
     <row r="34" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>19</v>
@@ -14892,7 +14903,7 @@
         <v>303</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G35" s="15">
         <v>1</v>
@@ -14986,7 +14997,7 @@
     <row r="42" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>12</v>
@@ -15024,7 +15035,7 @@
     <row r="45" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>12</v>
@@ -15062,7 +15073,7 @@
     <row r="48" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>19</v>
@@ -15088,7 +15099,7 @@
         <v>303</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G49" s="15">
         <v>1</v>
@@ -15274,7 +15285,7 @@
     <row r="61" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>19</v>
@@ -15300,7 +15311,7 @@
         <v>399</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G62" s="21">
         <v>1</v>

--- a/CR - Cost Report/1_BOM/SU/BOM_SU.xlsx
+++ b/CR - Cost Report/1_BOM/SU/BOM_SU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\1_BOM\SU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A989DD-937B-42C9-B5C3-21CDD266E4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99294E84-100F-4F70-B5AB-549E95E532BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1807FCBB-045D-46A2-911F-8FF3D80D26D9}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{1807FCBB-045D-46A2-911F-8FF3D80D26D9}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -1012,15 +1012,6 @@
     <t>Aluminium, 7075 T6</t>
   </si>
   <si>
-    <t>Milling, First phase</t>
-  </si>
-  <si>
-    <t>Milling, Tube insert 1</t>
-  </si>
-  <si>
-    <t>Milling, Tube insert 2</t>
-  </si>
-  <si>
     <t>Steel, 35NCD16</t>
   </si>
   <si>
@@ -1448,6 +1439,15 @@
   </si>
   <si>
     <t>Ou 2x M8x45</t>
+  </si>
+  <si>
+    <t>Milling, Tube inserts</t>
+  </si>
+  <si>
+    <t>Milling, Top face</t>
+  </si>
+  <si>
+    <t>Milling, Bottom face</t>
   </si>
 </sst>
 </file>
@@ -2705,9 +2705,9 @@
   </sheetPr>
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H175" s="5" t="b">
         <v>0</v>
@@ -6714,8 +6714,8 @@
   </sheetPr>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6793,10 +6793,10 @@
         <v>298</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G4" s="19">
         <v>1</v>
@@ -6818,13 +6818,13 @@
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>319</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>322</v>
       </c>
       <c r="G6" s="19">
         <v>4</v>
@@ -6836,13 +6836,13 @@
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G7" s="19">
         <v>4</v>
@@ -6854,13 +6854,13 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G8" s="19">
         <v>4</v>
@@ -6885,10 +6885,10 @@
         <v>286</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -6911,10 +6911,10 @@
         <v>286</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="20"/>
@@ -6927,10 +6927,10 @@
         <v>286</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="20"/>
@@ -6943,10 +6943,10 @@
         <v>286</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="20"/>
@@ -6959,10 +6959,10 @@
         <v>286</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="20"/>
@@ -6975,10 +6975,10 @@
         <v>286</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="20"/>
@@ -6991,10 +6991,10 @@
         <v>286</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="20"/>
@@ -7017,10 +7017,10 @@
         <v>286</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="20"/>
@@ -7033,10 +7033,10 @@
         <v>286</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="20"/>
@@ -7049,7 +7049,7 @@
         <v>286</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -7080,13 +7080,13 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="20"/>
@@ -7096,13 +7096,13 @@
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="20"/>
@@ -7154,7 +7154,7 @@
         <v>296</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="20"/>
@@ -7206,7 +7206,7 @@
         <v>296</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -7290,7 +7290,7 @@
         <v>282</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>300</v>
+        <v>445</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="20"/>
@@ -7322,7 +7322,7 @@
         <v>282</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>301</v>
+        <v>443</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="20"/>
@@ -7354,7 +7354,7 @@
         <v>282</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>302</v>
+        <v>444</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="20"/>
@@ -7386,7 +7386,7 @@
         <v>296</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="20"/>
@@ -7402,7 +7402,7 @@
         <v>296</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="20"/>
@@ -7454,7 +7454,7 @@
         <v>279</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="20"/>
@@ -7470,7 +7470,7 @@
         <v>281</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="20"/>
@@ -7486,7 +7486,7 @@
         <v>282</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="20"/>
@@ -7502,7 +7502,7 @@
         <v>283</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="20"/>
@@ -7518,7 +7518,7 @@
         <v>282</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="20"/>
@@ -7534,7 +7534,7 @@
         <v>284</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -7550,7 +7550,7 @@
         <v>296</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -7566,7 +7566,7 @@
         <v>296</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -7599,7 +7599,7 @@
         <v>298</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -7616,7 +7616,7 @@
         <v>281</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -7629,10 +7629,10 @@
         <v>286</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -7648,7 +7648,7 @@
         <v>284</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -8083,7 +8083,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8091,20 +8091,20 @@
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G4" s="19">
         <v>4</v>
       </c>
       <c r="H4" s="19"/>
       <c r="J4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8112,13 +8112,13 @@
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G5" s="19">
         <v>4</v>
@@ -8130,13 +8130,13 @@
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G6" s="19">
         <v>4</v>
@@ -8181,10 +8181,10 @@
         <v>286</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -8197,10 +8197,10 @@
         <v>286</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -8213,10 +8213,10 @@
         <v>286</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="20"/>
@@ -8229,10 +8229,10 @@
         <v>286</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="20"/>
@@ -8245,7 +8245,7 @@
         <v>286</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -8294,7 +8294,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>12</v>
@@ -8443,10 +8443,10 @@
         <v>298</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G31" s="19">
         <v>1</v>
@@ -8464,7 +8464,7 @@
         <v>281</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="20"/>
@@ -8477,10 +8477,10 @@
         <v>286</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="20"/>
@@ -8496,7 +8496,7 @@
         <v>284</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="20"/>
@@ -9082,8 +9082,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -9150,7 +9150,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -9158,13 +9158,13 @@
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G4" s="20">
         <v>2</v>
@@ -9176,13 +9176,13 @@
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G5" s="20">
         <v>2</v>
@@ -9194,13 +9194,13 @@
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G6" s="20">
         <v>2</v>
@@ -9212,13 +9212,13 @@
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G7" s="20">
         <v>2</v>
@@ -9243,10 +9243,10 @@
         <v>286</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -9259,10 +9259,10 @@
         <v>286</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -9275,10 +9275,10 @@
         <v>286</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -9291,7 +9291,7 @@
         <v>286</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -9350,7 +9350,7 @@
     <row r="18" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>19</v>
@@ -9373,10 +9373,10 @@
         <v>298</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G19" s="15">
         <v>1</v>
@@ -9394,7 +9394,7 @@
         <v>279</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="20"/>
@@ -9407,10 +9407,10 @@
         <v>286</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="20"/>
@@ -9423,10 +9423,10 @@
         <v>286</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="20"/>
@@ -9442,7 +9442,7 @@
         <v>284</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="20"/>
@@ -9480,7 +9480,7 @@
     <row r="27" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>19</v>
@@ -9503,10 +9503,10 @@
         <v>298</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G28" s="15">
         <v>1</v>
@@ -9524,7 +9524,7 @@
         <v>281</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -9537,10 +9537,10 @@
         <v>286</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -9574,7 +9574,7 @@
     <row r="33" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>12</v>
@@ -10183,7 +10183,7 @@
   <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -10250,7 +10250,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -10261,10 +10261,10 @@
         <v>298</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G4" s="19">
         <v>1</v>
@@ -10286,13 +10286,13 @@
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>319</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>322</v>
       </c>
       <c r="G6" s="19">
         <v>2</v>
@@ -10304,13 +10304,13 @@
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G7" s="19">
         <v>2</v>
@@ -10322,13 +10322,13 @@
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G8" s="19">
         <v>2</v>
@@ -10340,13 +10340,13 @@
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G9" s="20">
         <v>2</v>
@@ -10358,13 +10358,13 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G10" s="20">
         <v>2</v>
@@ -10389,10 +10389,10 @@
         <v>286</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -10405,10 +10405,10 @@
         <v>286</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -10421,10 +10421,10 @@
         <v>286</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -10447,10 +10447,10 @@
         <v>286</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -10463,10 +10463,10 @@
         <v>286</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -10479,10 +10479,10 @@
         <v>286</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -10495,10 +10495,10 @@
         <v>286</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -10511,10 +10511,10 @@
         <v>286</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -10527,10 +10527,10 @@
         <v>286</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -10553,10 +10553,10 @@
         <v>286</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -10569,10 +10569,10 @@
         <v>286</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -10585,7 +10585,7 @@
         <v>286</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="20"/>
@@ -10616,13 +10616,13 @@
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -10632,13 +10632,13 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -10646,7 +10646,7 @@
     <row r="30" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>19</v>
@@ -10654,7 +10654,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G30" s="15">
         <v>2</v>
@@ -10674,7 +10674,7 @@
         <v>299</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="20"/>
@@ -10690,7 +10690,7 @@
         <v>279</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="20"/>
@@ -10706,7 +10706,7 @@
         <v>281</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="20"/>
@@ -10722,7 +10722,7 @@
         <v>282</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="20"/>
@@ -10738,7 +10738,7 @@
         <v>284</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="20"/>
@@ -10754,7 +10754,7 @@
         <v>296</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="20"/>
@@ -10770,7 +10770,7 @@
         <v>296</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="20"/>
@@ -10778,7 +10778,7 @@
     <row r="38" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>19</v>
@@ -10786,7 +10786,7 @@
       <c r="D38" s="20"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G38" s="15">
         <v>2</v>
@@ -10806,7 +10806,7 @@
         <v>299</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="20"/>
@@ -10822,7 +10822,7 @@
         <v>279</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="20"/>
@@ -10838,7 +10838,7 @@
         <v>281</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="20"/>
@@ -10854,7 +10854,7 @@
         <v>282</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="20"/>
@@ -10870,7 +10870,7 @@
         <v>284</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="20"/>
@@ -10886,7 +10886,7 @@
         <v>296</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="20"/>
@@ -10902,7 +10902,7 @@
         <v>296</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="20"/>
@@ -10910,7 +10910,7 @@
     <row r="46" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>12</v>
@@ -10950,7 +10950,7 @@
     <row r="49" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>12</v>
@@ -10998,7 +10998,7 @@
       <c r="D52" s="20"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G52" s="15">
         <v>4</v>
@@ -11015,13 +11015,13 @@
         <v>298</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="15"/>
       <c r="H53" s="20"/>
       <c r="I53" s="28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -11035,7 +11035,7 @@
         <v>281</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="20"/>
@@ -11048,10 +11048,10 @@
         <v>286</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="20"/>
@@ -11095,7 +11095,7 @@
     <row r="59" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>12</v>
@@ -11139,7 +11139,7 @@
         <v>296</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="20"/>
@@ -11635,7 +11635,7 @@
   </sheetPr>
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -11678,7 +11678,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -11703,7 +11703,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -11711,13 +11711,13 @@
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G4" s="20">
         <v>4</v>
@@ -11729,13 +11729,13 @@
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>319</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="G5" s="20">
         <v>8</v>
@@ -11747,13 +11747,13 @@
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G6" s="20">
         <v>2</v>
@@ -11765,13 +11765,13 @@
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G7" s="20">
         <v>14</v>
@@ -11783,13 +11783,13 @@
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G8" s="20">
         <v>14</v>
@@ -11814,10 +11814,10 @@
         <v>286</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -11830,10 +11830,10 @@
         <v>286</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -11846,10 +11846,10 @@
         <v>286</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -11862,10 +11862,10 @@
         <v>286</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -11878,10 +11878,10 @@
         <v>286</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -11904,10 +11904,10 @@
         <v>286</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="20"/>
@@ -11920,10 +11920,10 @@
         <v>286</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="20"/>
@@ -11936,10 +11936,10 @@
         <v>286</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="20"/>
@@ -11952,10 +11952,10 @@
         <v>286</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="20"/>
@@ -12003,7 +12003,7 @@
     <row r="24" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>19</v>
@@ -12080,7 +12080,7 @@
         <v>282</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="20"/>
@@ -12113,7 +12113,7 @@
         <v>282</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="20"/>
@@ -12145,7 +12145,7 @@
         <v>282</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -12177,7 +12177,7 @@
         <v>282</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -12211,7 +12211,7 @@
     <row r="37" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>19</v>
@@ -12283,7 +12283,7 @@
         <v>282</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="20"/>
@@ -12315,7 +12315,7 @@
         <v>282</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="20"/>
@@ -12369,7 +12369,7 @@
     <row r="48" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>19</v>
@@ -12390,7 +12390,7 @@
         <v>298</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -12407,7 +12407,7 @@
         <v>279</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="20"/>
@@ -12420,10 +12420,10 @@
         <v>286</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="20"/>
@@ -12436,10 +12436,10 @@
         <v>286</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="20"/>
@@ -12455,7 +12455,7 @@
         <v>284</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="20"/>
@@ -12473,7 +12473,7 @@
     <row r="55" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>19</v>
@@ -12495,7 +12495,7 @@
         <v>298</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="21"/>
@@ -12513,7 +12513,7 @@
         <v>279</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -12527,10 +12527,10 @@
         <v>286</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -12544,10 +12544,10 @@
         <v>286</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -12563,7 +12563,7 @@
         <v>284</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
@@ -12601,7 +12601,7 @@
     <row r="64" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
       <c r="B64" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>19</v>
@@ -12624,7 +12624,7 @@
         <v>298</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -12641,7 +12641,7 @@
         <v>279</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
@@ -12654,10 +12654,10 @@
         <v>286</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
@@ -12670,10 +12670,10 @@
         <v>286</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
@@ -12689,7 +12689,7 @@
         <v>284</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
@@ -12727,7 +12727,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>19</v>
@@ -12799,7 +12799,7 @@
         <v>282</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
@@ -12831,7 +12831,7 @@
         <v>282</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
@@ -12880,10 +12880,10 @@
         <v>298</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
@@ -12899,7 +12899,7 @@
         <v>281</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
@@ -12912,10 +12912,10 @@
         <v>286</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
@@ -12931,7 +12931,7 @@
         <v>284</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
@@ -12994,10 +12994,10 @@
         <v>298</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
@@ -13013,7 +13013,7 @@
         <v>281</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
@@ -13026,10 +13026,10 @@
         <v>286</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
@@ -13045,7 +13045,7 @@
         <v>284</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -13149,7 +13149,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -13157,13 +13157,13 @@
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G4" s="20">
         <v>4</v>
@@ -13175,13 +13175,13 @@
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>319</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="G5" s="20">
         <v>4</v>
@@ -13193,13 +13193,13 @@
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G6" s="20">
         <v>2</v>
@@ -13211,13 +13211,13 @@
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G7" s="20">
         <v>10</v>
@@ -13229,13 +13229,13 @@
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G8" s="20">
         <v>10</v>
@@ -13260,10 +13260,10 @@
         <v>286</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -13276,10 +13276,10 @@
         <v>286</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -13292,10 +13292,10 @@
         <v>286</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -13318,10 +13318,10 @@
         <v>286</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="20"/>
@@ -13334,10 +13334,10 @@
         <v>286</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="20"/>
@@ -13350,10 +13350,10 @@
         <v>286</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="20"/>
@@ -13366,10 +13366,10 @@
         <v>286</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="20"/>
@@ -13417,7 +13417,7 @@
     <row r="22" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>19</v>
@@ -13494,7 +13494,7 @@
         <v>282</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="20"/>
@@ -13527,7 +13527,7 @@
         <v>282</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="20"/>
@@ -13559,7 +13559,7 @@
         <v>282</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -13591,7 +13591,7 @@
         <v>282</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -13625,7 +13625,7 @@
     <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>19</v>
@@ -13697,7 +13697,7 @@
         <v>282</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="20"/>
@@ -13729,7 +13729,7 @@
         <v>282</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="20"/>
@@ -13783,7 +13783,7 @@
     <row r="46" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>19</v>
@@ -13804,7 +13804,7 @@
         <v>298</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -13821,7 +13821,7 @@
         <v>279</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="20"/>
@@ -13834,10 +13834,10 @@
         <v>286</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="20"/>
@@ -13850,10 +13850,10 @@
         <v>286</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="20"/>
@@ -13869,7 +13869,7 @@
         <v>284</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="20"/>
@@ -13887,7 +13887,7 @@
     <row r="53" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>19</v>
@@ -13909,7 +13909,7 @@
         <v>298</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="21"/>
@@ -13927,7 +13927,7 @@
         <v>279</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -13941,10 +13941,10 @@
         <v>286</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -13958,10 +13958,10 @@
         <v>286</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -13977,7 +13977,7 @@
         <v>284</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -14015,7 +14015,7 @@
     <row r="62" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>19</v>
@@ -14036,7 +14036,7 @@
         <v>298</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -14053,7 +14053,7 @@
         <v>279</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
@@ -14066,10 +14066,10 @@
         <v>286</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -14082,10 +14082,10 @@
         <v>286</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
@@ -14101,7 +14101,7 @@
         <v>284</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
@@ -14164,10 +14164,10 @@
         <v>298</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
@@ -14183,7 +14183,7 @@
         <v>281</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
@@ -14196,10 +14196,10 @@
         <v>286</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
@@ -14215,7 +14215,7 @@
         <v>284</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
@@ -14278,10 +14278,10 @@
         <v>298</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
@@ -14297,7 +14297,7 @@
         <v>281</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
@@ -14310,10 +14310,10 @@
         <v>286</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
@@ -14329,7 +14329,7 @@
         <v>284</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
@@ -14365,8 +14365,8 @@
   </sheetPr>
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14408,7 +14408,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -14433,7 +14433,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -14441,13 +14441,13 @@
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G4" s="20">
         <v>4</v>
@@ -14459,13 +14459,13 @@
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G5" s="20">
         <v>2</v>
@@ -14477,13 +14477,13 @@
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G6" s="20">
         <v>2</v>
@@ -14495,13 +14495,13 @@
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G7" s="20">
         <v>4</v>
@@ -14513,13 +14513,13 @@
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G8" s="20">
         <v>4</v>
@@ -14531,13 +14531,13 @@
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G9" s="20">
         <v>4</v>
@@ -14549,13 +14549,13 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G10" s="20">
         <v>8</v>
@@ -14580,10 +14580,10 @@
         <v>286</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -14596,10 +14596,10 @@
         <v>286</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -14612,10 +14612,10 @@
         <v>286</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -14628,10 +14628,10 @@
         <v>286</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="20"/>
@@ -14654,10 +14654,10 @@
         <v>286</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="20"/>
@@ -14670,10 +14670,10 @@
         <v>286</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="20"/>
@@ -14696,10 +14696,10 @@
         <v>286</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="20"/>
@@ -14712,10 +14712,10 @@
         <v>286</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="20"/>
@@ -14728,10 +14728,10 @@
         <v>286</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="20"/>
@@ -14744,10 +14744,10 @@
         <v>286</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="20"/>
@@ -14760,10 +14760,10 @@
         <v>286</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="20"/>
@@ -14776,10 +14776,10 @@
         <v>286</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="20"/>
@@ -14787,7 +14787,7 @@
     <row r="26" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>12</v>
@@ -14795,7 +14795,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G26" s="15">
         <v>1</v>
@@ -14877,7 +14877,7 @@
     <row r="34" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>19</v>
@@ -14900,10 +14900,10 @@
         <v>298</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G35" s="15">
         <v>1</v>
@@ -14921,7 +14921,7 @@
         <v>279</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="20"/>
@@ -14937,7 +14937,7 @@
         <v>281</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="20"/>
@@ -14953,7 +14953,7 @@
         <v>282</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="20"/>
@@ -14969,7 +14969,7 @@
         <v>284</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="20"/>
@@ -14997,7 +14997,7 @@
     <row r="42" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>12</v>
@@ -15035,7 +15035,7 @@
     <row r="45" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>12</v>
@@ -15073,7 +15073,7 @@
     <row r="48" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>19</v>
@@ -15096,10 +15096,10 @@
         <v>298</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G49" s="15">
         <v>1</v>
@@ -15152,7 +15152,7 @@
         <v>282</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -15186,7 +15186,7 @@
         <v>282</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -15220,7 +15220,7 @@
         <v>282</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -15255,7 +15255,7 @@
     <row r="59" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>12</v>
@@ -15285,7 +15285,7 @@
     <row r="61" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>19</v>
@@ -15308,10 +15308,10 @@
         <v>298</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G62" s="21">
         <v>1</v>
@@ -15361,7 +15361,7 @@
         <v>282</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -15393,7 +15393,7 @@
         <v>282</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
@@ -15460,7 +15460,7 @@
         <v>298</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
@@ -15477,7 +15477,7 @@
         <v>281</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
@@ -15490,10 +15490,10 @@
         <v>286</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
@@ -15509,7 +15509,7 @@
         <v>284</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
@@ -15562,10 +15562,10 @@
         <v>298</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
@@ -15581,7 +15581,7 @@
         <v>281</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
@@ -15594,10 +15594,10 @@
         <v>286</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
@@ -15613,7 +15613,7 @@
         <v>284</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
@@ -15772,7 +15772,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -15781,7 +15781,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -15797,7 +15797,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
